--- a/data/machine/feedBinInventory.xlsx
+++ b/data/machine/feedBinInventory.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MESSystem_180506\MESSystem\data\machine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="5580"/>
+    <workbookView xWindow="1290" yWindow="45" windowWidth="14355" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,8 +307,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -311,12 +316,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -358,7 +366,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,7 +401,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>

--- a/data/machine/feedBinInventory.xlsx
+++ b/data/machine/feedBinInventory.xlsx
@@ -1,36 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\紫华\MESSystem_180506\MESSystem\data\machine\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62CEB77F-56D5-4FD4-AF4C-80EBA6C3649A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="45" windowWidth="14355" windowHeight="5580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
+  <si>
+    <t>物料名5</t>
+  </si>
+  <si>
+    <t>物料编号5</t>
+  </si>
+  <si>
+    <t>物料名6</t>
+  </si>
+  <si>
+    <t>物料编号6</t>
+  </si>
+  <si>
+    <t>materialName5</t>
+  </si>
+  <si>
+    <t>materialName6</t>
+  </si>
+  <si>
+    <t>materialCode5</t>
+  </si>
+  <si>
+    <t>materialCode6</t>
+  </si>
+  <si>
+    <t>上期余量4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previousLeft4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前余量4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentLeft4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上期余量5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previousLeft5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前余量5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentLeft5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上期余量6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previousLeft6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前余量6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentLeft6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单状态(开工/报工)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态更改时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料仓余量1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单使用量1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料仓余量2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单使用量2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料仓余量3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单使用量3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料仓余量4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单使用量4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料仓余量5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单使用量5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料仓余量6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单使用量6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>料仓余量7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单使用量7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>dispatchCode</t>
-  </si>
-  <si>
-    <t>工单编号</t>
-  </si>
-  <si>
-    <t>工单状态（开工/报工）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -38,27 +166,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>状态更改时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>statusChangeTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>料仓余量1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单使用量1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>binLeft1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>料仓余量2</t>
+    <t>quantityUsed1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -66,103 +182,135 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工单使用量2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantityUsed1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>quantityUsed2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>binLeft3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>quantityUsed3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>binLeft4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>quantityUsed4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>binLeft5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>quantityUsed5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>binLeft6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>quantityUsed6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工单使用量6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>料仓余量6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>binLeft6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单使用量5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>binLeft5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>料仓余量5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单使用量4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>料仓余量4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>binLeft4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单使用量3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>料仓余量3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>binLeft3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>料仓余量7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>binLeft7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工单使用量7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>quantityUsed7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17110906L302</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-30 08:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-30 20:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>782</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17110906L303</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-31 08:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-31 20:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>720</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17110906L304</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-04-01 08:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-04-01 20:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>699</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17110906L503</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17110906L504</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +332,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,17 +363,35 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,15 +399,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -277,7 +446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,26 +479,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,23 +514,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -554,144 +689,604 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="13.375" customWidth="1"/>
+    <col min="21" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="17.5" customWidth="1"/>
+    <col min="24" max="24" width="13.375" customWidth="1"/>
+    <col min="25" max="25" width="16.25" customWidth="1"/>
+    <col min="26" max="26" width="17.375" customWidth="1"/>
+    <col min="27" max="27" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="V1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="V2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Z2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -701,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -714,7 +1309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
